--- a/data/thromboglobulin.xlsx
+++ b/data/thromboglobulin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\basic_stats_R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F605A155-CCF8-4E34-8F41-1988477EAD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A140AE12-2B48-4578-A2BC-C00242BD30EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/thromboglobulin.xlsx
+++ b/data/thromboglobulin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\basic_stats_R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A140AE12-2B48-4578-A2BC-C00242BD30EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653510A-D765-4975-9655-8C502B6E623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,13 @@
     <t>status</t>
   </si>
   <si>
-    <t>non-diabetic</t>
-  </si>
-  <si>
     <t>diabetic</t>
   </si>
   <si>
     <t>b_TG</t>
+  </si>
+  <si>
+    <t>non_diabetic</t>
   </si>
 </sst>
 </file>
@@ -424,12 +424,12 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,12 +438,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>4.0999999999999996</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>6.3</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>7.8</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>8.5</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>8.9</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>10.4</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>11.5</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>13.8</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>17.600000000000001</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>24.3</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>37.200000000000003</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>27.5</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>28.1</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>26.1</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="2">
         <v>23.8</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>25</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>29.8</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2">
         <v>33.9</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2">
         <v>37.700000000000003</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>31.3</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2">
         <v>43.2</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>28.7</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
         <v>46.2</v>
